--- a/ComputerArchitecture/cpu/PL.xlsx
+++ b/ComputerArchitecture/cpu/PL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workpath\Notes\ComputerArchitecture\cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4884D82-3DD9-42FF-8912-5C04787DF374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36071979-B2F0-4875-80CC-D163CD3F5918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" firstSheet="1" activeTab="1" xr2:uid="{4A1BF099-32EC-4A84-8481-4666D932E36A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1" xr2:uid="{4A1BF099-32EC-4A84-8481-4666D932E36A}"/>
   </bookViews>
   <sheets>
     <sheet name="PIPELINE DESIGN" sheetId="7" r:id="rId1"/>
@@ -2006,34 +2006,25 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,17 +2042,26 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2381,6 +2381,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010006C-474D-4AEC-BC38-B38BF708AA26}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2390,8 +2393,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="30" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
@@ -2400,7 +2403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="30" t="s">
         <v>301</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -2435,411 +2438,411 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="48">
-        <v>1</v>
-      </c>
-      <c r="E2" s="48">
-        <v>1</v>
-      </c>
-      <c r="F2" s="48">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48">
-        <v>1</v>
-      </c>
-      <c r="H2" s="48">
-        <v>1</v>
-      </c>
-      <c r="I2" s="48">
-        <v>1</v>
-      </c>
-      <c r="J2" s="48">
-        <v>1</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31">
+        <v>1</v>
+      </c>
+      <c r="J2" s="31">
+        <v>1</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="48">
-        <v>1</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="48">
-        <v>1</v>
-      </c>
-      <c r="E4" s="48">
-        <v>1</v>
-      </c>
-      <c r="F4" s="48">
-        <v>1</v>
-      </c>
-      <c r="G4" s="48">
-        <v>1</v>
-      </c>
-      <c r="H4" s="48">
-        <v>1</v>
-      </c>
-      <c r="I4" s="48">
-        <v>1</v>
-      </c>
-      <c r="J4" s="48">
-        <v>1</v>
-      </c>
-      <c r="K4" s="48">
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+      <c r="I4" s="31">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="48">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="48">
-        <v>1</v>
-      </c>
-      <c r="E6" s="48">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48">
-        <v>1</v>
-      </c>
-      <c r="G6" s="48">
-        <v>1</v>
-      </c>
-      <c r="H6" s="48">
-        <v>1</v>
-      </c>
-      <c r="I6" s="48">
-        <v>1</v>
-      </c>
-      <c r="J6" s="48">
-        <v>1</v>
-      </c>
-      <c r="K6" s="48">
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="48">
-        <v>1</v>
-      </c>
-      <c r="E7" s="48">
-        <v>1</v>
-      </c>
-      <c r="F7" s="48">
-        <v>1</v>
-      </c>
-      <c r="G7" s="48">
-        <v>1</v>
-      </c>
-      <c r="H7" s="48">
-        <v>1</v>
-      </c>
-      <c r="I7" s="48">
-        <v>1</v>
-      </c>
-      <c r="J7" s="48">
-        <v>1</v>
-      </c>
-      <c r="K7" s="48">
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="31">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="48">
-        <v>1</v>
-      </c>
-      <c r="E8" s="48">
-        <v>1</v>
-      </c>
-      <c r="F8" s="48">
-        <v>1</v>
-      </c>
-      <c r="G8" s="48">
-        <v>1</v>
-      </c>
-      <c r="H8" s="48">
-        <v>1</v>
-      </c>
-      <c r="I8" s="48">
-        <v>1</v>
-      </c>
-      <c r="J8" s="48">
-        <v>1</v>
-      </c>
-      <c r="K8" s="48">
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+      <c r="K8" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="48">
-        <v>1</v>
-      </c>
-      <c r="E9" s="48">
-        <v>1</v>
-      </c>
-      <c r="F9" s="48">
-        <v>1</v>
-      </c>
-      <c r="G9" s="48">
-        <v>1</v>
-      </c>
-      <c r="H9" s="48">
-        <v>1</v>
-      </c>
-      <c r="I9" s="48">
-        <v>1</v>
-      </c>
-      <c r="J9" s="48">
-        <v>1</v>
-      </c>
-      <c r="K9" s="48">
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="48">
-        <v>1</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F14" s="48">
-        <v>1</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48">
-        <v>1</v>
-      </c>
-      <c r="I14" s="48">
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="48">
-        <v>1</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48">
-        <v>1</v>
-      </c>
-      <c r="I15" s="48">
+      <c r="F15" s="31">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F16" s="48">
-        <v>1</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48">
-        <v>1</v>
-      </c>
-      <c r="I16" s="48">
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F17" s="48">
-        <v>1</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48">
-        <v>1</v>
-      </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48">
-        <v>1</v>
-      </c>
-      <c r="K17" s="48" t="s">
+      <c r="F17" s="31">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31">
+        <v>1</v>
+      </c>
+      <c r="K17" s="31" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F18" s="48">
-        <v>1</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48">
-        <v>1</v>
-      </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48">
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="48">
-        <v>1</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48">
-        <v>1</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48">
-        <v>1</v>
-      </c>
-      <c r="K19" s="48" t="s">
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="31" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F20" t="s">
@@ -2847,10 +2850,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F21" t="s">
@@ -2858,10 +2861,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F22" t="s">
@@ -2869,10 +2872,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F23" t="s">
@@ -2880,10 +2883,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F24" t="s">
@@ -2891,43 +2894,43 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F28" t="s">
@@ -2935,48 +2938,48 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F29" s="48">
-        <v>1</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F32" t="s">
@@ -2984,10 +2987,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F33" t="s">
@@ -2995,77 +2998,77 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="H34" s="48">
-        <v>1</v>
-      </c>
-      <c r="I34" s="48">
-        <v>1</v>
-      </c>
-      <c r="J34" s="48">
-        <v>1</v>
-      </c>
-      <c r="K34" s="48">
+      <c r="H34" s="31">
+        <v>1</v>
+      </c>
+      <c r="I34" s="31">
+        <v>1</v>
+      </c>
+      <c r="J34" s="31">
+        <v>1</v>
+      </c>
+      <c r="K34" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="30" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="30" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="G37" s="48" t="s">
+      <c r="G37" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="30" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="J38" s="46" t="s">
+      <c r="J38" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="K38" s="48" t="s">
+      <c r="K38" s="31" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="30" t="s">
         <v>350</v>
       </c>
       <c r="C39" s="28"/>
@@ -3080,7 +3083,7 @@
       <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="30" t="s">
         <v>351</v>
       </c>
       <c r="C40" s="28"/>
@@ -3095,51 +3098,51 @@
       <c r="L40" s="28"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="H41" s="30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="J42" s="46" t="s">
+      <c r="J42" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="30" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="30" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3149,16 +3152,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07C5C0-AD03-4360-B448-7E7DEFEACDFB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3172,26 +3178,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="42" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
       <c r="K1" s="24"/>
@@ -3209,48 +3215,48 @@
       <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="39" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="39" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="39" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="34"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="20" t="s">
         <v>128</v>
       </c>
@@ -3260,8 +3266,8 @@
       <c r="H3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="44"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="20" t="s">
         <v>252</v>
       </c>
@@ -5598,21 +5604,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5631,26 +5638,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="42" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
       <c r="K1" s="23" t="s">
@@ -5669,10 +5676,10 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
       <c r="X1" s="24"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="35"/>
       <c r="AC1" s="14"/>
       <c r="AD1" s="29" t="s">
         <v>297</v>
@@ -5688,47 +5695,47 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="39" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="39" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="39" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="23" t="s">
         <v>286</v>
       </c>
@@ -5741,11 +5748,11 @@
       <c r="AG2" s="15"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="20" t="s">
         <v>128</v>
       </c>
@@ -5755,8 +5762,8 @@
       <c r="H3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="44"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="19" t="s">
         <v>288</v>
       </c>
@@ -5834,13 +5841,13 @@
       <c r="J4" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="45" t="s">
         <v>129</v>
       </c>
       <c r="N4" s="13"/>
@@ -5907,9 +5914,9 @@
       <c r="J5" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13" t="s">
@@ -5972,9 +5979,9 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="s">
@@ -6037,9 +6044,9 @@
       <c r="J7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13" t="s">
@@ -6100,9 +6107,9 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
@@ -6165,9 +6172,9 @@
       <c r="J9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
@@ -6226,9 +6233,9 @@
       <c r="J10" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13" t="s">
@@ -6287,9 +6294,9 @@
       <c r="J11" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13" t="s">
@@ -6346,9 +6353,9 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13" t="s">
@@ -6405,9 +6412,9 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13" t="s">
@@ -6464,9 +6471,9 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13" t="s">
@@ -6521,9 +6528,9 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13" t="s">
@@ -6578,9 +6585,9 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13" t="s">
@@ -6639,9 +6646,9 @@
       <c r="J17" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13" t="s">
@@ -6698,9 +6705,9 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13" t="s">
@@ -6755,9 +6762,9 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13" t="s">
@@ -6812,9 +6819,9 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13" t="s">
@@ -6867,9 +6874,9 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13" t="s">
@@ -6922,9 +6929,9 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13" t="s">
@@ -6979,9 +6986,9 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13" t="s">
@@ -7036,9 +7043,9 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13" t="s">
@@ -7091,9 +7098,9 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13" t="s">
@@ -7150,9 +7157,9 @@
       <c r="J26" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13" t="s">
@@ -7207,9 +7214,9 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13" t="s">
@@ -7268,9 +7275,9 @@
         <v>154</v>
       </c>
       <c r="J28" s="13"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13" t="s">
@@ -7327,9 +7334,9 @@
         <v>159</v>
       </c>
       <c r="J29" s="13"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13" t="s">
@@ -7388,9 +7395,9 @@
         <v>11</v>
       </c>
       <c r="J30" s="13"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13" t="s">
@@ -7451,9 +7458,9 @@
         <v>61</v>
       </c>
       <c r="J31" s="13"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13" t="s">
@@ -7510,9 +7517,9 @@
       <c r="J32" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13" t="s">
@@ -7571,9 +7578,9 @@
       <c r="J33" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13" t="s">
@@ -7630,9 +7637,9 @@
         <v>230</v>
       </c>
       <c r="J34" s="13"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13" t="s">
@@ -7689,9 +7696,9 @@
         <v>209</v>
       </c>
       <c r="J35" s="13"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13" t="s">
@@ -7750,9 +7757,9 @@
       <c r="J36" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13" t="s">
@@ -7811,9 +7818,9 @@
       <c r="J37" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13" t="s">
@@ -7870,9 +7877,9 @@
         <v>250</v>
       </c>
       <c r="J38" s="13"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
@@ -7927,9 +7934,9 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13" t="s">
@@ -7984,9 +7991,9 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13" t="s">
@@ -8043,9 +8050,9 @@
         <v>257</v>
       </c>
       <c r="J41" s="13"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13" t="s">
@@ -8104,9 +8111,9 @@
       <c r="J42" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13" t="s">
@@ -8165,9 +8172,9 @@
       <c r="J43" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13" t="s">
@@ -8226,9 +8233,9 @@
       <c r="J44" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13" t="s">
@@ -8287,9 +8294,9 @@
       <c r="J45" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13" t="s">
@@ -8346,9 +8353,9 @@
         <v>213</v>
       </c>
       <c r="J46" s="13"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13" t="s">
@@ -8405,9 +8412,9 @@
         <v>220</v>
       </c>
       <c r="J47" s="13"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13" t="s">
@@ -8456,9 +8463,9 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -8493,9 +8500,9 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
@@ -8718,6 +8725,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="K4:K49"/>
     <mergeCell ref="L4:L49"/>
     <mergeCell ref="M4:M49"/>
@@ -8729,11 +8741,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8804,26 +8811,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="42" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
       <c r="K1" s="23" t="s">
@@ -8842,10 +8849,10 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
       <c r="X1" s="24"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="35"/>
       <c r="AC1" s="14"/>
       <c r="AD1" s="29" t="s">
         <v>297</v>
@@ -8861,47 +8868,47 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="39" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="39" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="39" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="23" t="s">
         <v>286</v>
       </c>
@@ -8916,11 +8923,11 @@
       <c r="AI2" s="15"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="20" t="s">
         <v>128</v>
       </c>
@@ -8930,8 +8937,8 @@
       <c r="H3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="44"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="19" t="s">
         <v>288</v>
       </c>
@@ -8999,13 +9006,13 @@
       <c r="J4" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="45" t="s">
         <v>129</v>
       </c>
       <c r="P4" s="13" t="s">
@@ -9061,9 +9068,9 @@
       <c r="J5" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
       <c r="P5" s="13" t="s">
         <v>145</v>
       </c>
@@ -9114,9 +9121,9 @@
       <c r="E6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
       <c r="P6" s="13" t="s">
         <v>145</v>
       </c>
@@ -9167,9 +9174,9 @@
       <c r="J7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="P7" s="13" t="s">
         <v>145</v>
       </c>
@@ -9217,9 +9224,9 @@
       <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
       <c r="P8" s="13" t="s">
         <v>145</v>
       </c>
@@ -9270,9 +9277,9 @@
       <c r="J9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="P9" s="13" t="s">
         <v>151</v>
       </c>
@@ -9318,9 +9325,9 @@
       <c r="J10" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
       <c r="P10" s="13" t="s">
         <v>163</v>
       </c>
@@ -9366,9 +9373,9 @@
       <c r="J11" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
       <c r="P11" s="13" t="s">
         <v>151</v>
       </c>
@@ -9410,9 +9417,9 @@
       <c r="E12" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
       <c r="P12" s="13" t="s">
         <v>151</v>
       </c>
@@ -9454,9 +9461,9 @@
       <c r="E13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
       <c r="P13" s="13" t="s">
         <v>151</v>
       </c>
@@ -9498,9 +9505,9 @@
       <c r="E14" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
       <c r="P14" s="13" t="s">
         <v>151</v>
       </c>
@@ -9539,9 +9546,9 @@
       <c r="E15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
       <c r="P15" s="13" t="s">
         <v>31</v>
       </c>
@@ -9581,9 +9588,9 @@
       <c r="E16" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
       <c r="P16" s="13" t="s">
         <v>151</v>
       </c>
@@ -9628,9 +9635,9 @@
       <c r="J17" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
       <c r="P17" s="13" t="s">
         <v>151</v>
       </c>
@@ -9672,9 +9679,9 @@
       <c r="E18" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
       <c r="P18" s="13" t="s">
         <v>151</v>
       </c>
@@ -9713,9 +9720,9 @@
       <c r="E19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
       <c r="P19" s="13" t="s">
         <v>163</v>
       </c>
@@ -9755,9 +9762,9 @@
       <c r="E20" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
       <c r="P20" s="13" t="s">
         <v>151</v>
       </c>
@@ -9795,9 +9802,9 @@
       <c r="E21" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="P21" s="13" t="s">
         <v>151</v>
       </c>
@@ -9835,9 +9842,9 @@
       <c r="E22" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
       <c r="P22" s="13" t="s">
         <v>151</v>
       </c>
@@ -9878,9 +9885,9 @@
       <c r="E23" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="P23" s="13" t="s">
         <v>151</v>
       </c>
@@ -9921,9 +9928,9 @@
       <c r="E24" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="P24" s="13" t="s">
         <v>151</v>
       </c>
@@ -9961,9 +9968,9 @@
       <c r="E25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="P25" s="13" t="s">
         <v>163</v>
       </c>
@@ -10006,9 +10013,9 @@
       <c r="J26" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
       <c r="P26" s="13" t="s">
         <v>31</v>
       </c>
@@ -10050,9 +10057,9 @@
       <c r="E27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="P27" s="13" t="s">
         <v>190</v>
       </c>
@@ -10098,9 +10105,9 @@
       <c r="I28" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
       <c r="P28" s="13" t="s">
         <v>157</v>
       </c>
@@ -10143,9 +10150,9 @@
       <c r="I29" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
       <c r="P29" s="13" t="s">
         <v>157</v>
       </c>
@@ -10191,9 +10198,9 @@
       <c r="I30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
       <c r="P30" s="13" t="s">
         <v>157</v>
       </c>
@@ -10242,9 +10249,9 @@
       <c r="I31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
       <c r="P31" s="13" t="s">
         <v>157</v>
       </c>
@@ -10289,9 +10296,9 @@
       <c r="J32" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
       <c r="P32" s="13" t="s">
         <v>31</v>
       </c>
@@ -10337,9 +10344,9 @@
       <c r="J33" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
       <c r="P33" s="13" t="s">
         <v>31</v>
       </c>
@@ -10382,9 +10389,9 @@
       <c r="I34" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
       <c r="P34" s="13" t="s">
         <v>157</v>
       </c>
@@ -10427,9 +10434,9 @@
       <c r="I35" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
       <c r="P35" s="13" t="s">
         <v>157</v>
       </c>
@@ -10475,9 +10482,9 @@
       <c r="J36" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
       <c r="P36" s="13" t="s">
         <v>31</v>
       </c>
@@ -10523,9 +10530,9 @@
       <c r="J37" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
       <c r="P37" s="13" t="s">
         <v>31</v>
       </c>
@@ -10568,9 +10575,9 @@
       <c r="I38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="31"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
       <c r="P38" s="13" t="s">
         <v>157</v>
       </c>
@@ -10610,9 +10617,9 @@
       <c r="E39" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="K39" s="31"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
       <c r="P39" s="13" t="s">
         <v>151</v>
       </c>
@@ -10652,9 +10659,9 @@
       <c r="E40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
       <c r="P40" s="13" t="s">
         <v>151</v>
       </c>
@@ -10697,9 +10704,9 @@
       <c r="I41" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
       <c r="P41" s="13" t="s">
         <v>157</v>
       </c>
@@ -10745,9 +10752,9 @@
       <c r="J42" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
       <c r="P42" s="13" t="s">
         <v>31</v>
       </c>
@@ -10793,9 +10800,9 @@
       <c r="J43" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
       <c r="P43" s="13" t="s">
         <v>31</v>
       </c>
@@ -10841,9 +10848,9 @@
       <c r="J44" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
       <c r="P44" s="13" t="s">
         <v>31</v>
       </c>
@@ -10889,9 +10896,9 @@
       <c r="J45" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
       <c r="P45" s="13" t="s">
         <v>31</v>
       </c>
@@ -10934,9 +10941,9 @@
       <c r="I46" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
       <c r="P46" s="13" t="s">
         <v>157</v>
       </c>
@@ -10979,9 +10986,9 @@
       <c r="I47" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
       <c r="P47" s="13" t="s">
         <v>157</v>
       </c>
@@ -11012,9 +11019,9 @@
       <c r="A48" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
       <c r="Z48" s="26"/>
       <c r="AA48" s="26"/>
       <c r="AB48" s="26"/>
@@ -11023,9 +11030,9 @@
       <c r="A49" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
       <c r="Z49" s="26"/>
       <c r="AA49" s="26"/>
       <c r="AB49" s="26"/>
@@ -11071,11 +11078,6 @@
     <sortCondition ref="D4:D49"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="K4:K49"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="L4:L49"/>
@@ -11088,6 +11090,11 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11136,45 +11143,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="42" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
@@ -11186,47 +11193,47 @@
       <c r="AH1" s="14"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="39" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="39" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="39" t="s">
+      <c r="V2" s="36"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="34"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
@@ -11238,11 +11245,11 @@
       <c r="AH2" s="15"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="20" t="s">
         <v>128</v>
       </c>
@@ -11252,8 +11259,8 @@
       <c r="H3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="44"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="19" t="s">
         <v>148</v>
       </c>
@@ -13266,11 +13273,6 @@
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="E2:E3"/>
@@ -13280,6 +13282,11 @@
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15103,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="48" t="s">
         <v>116</v>
       </c>
     </row>
@@ -15141,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="45"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">

--- a/ComputerArchitecture/cpu/PL.xlsx
+++ b/ComputerArchitecture/cpu/PL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workpath\Notes\ComputerArchitecture\cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36071979-B2F0-4875-80CC-D163CD3F5918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996357A9-2BE2-4D2F-9807-F2DDE6F972B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1" xr2:uid="{4A1BF099-32EC-4A84-8481-4666D932E36A}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="409">
   <si>
     <t>op</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1566,6 +1566,150 @@
   </si>
   <si>
     <t>mtc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO:例外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符号乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符号除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-16==00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-16==10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟槽之后指令的PC(此时刚刚生成的PC+4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-16==10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写额外寄存器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,7 +1859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1897,6 +2041,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1915,7 +2068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1967,9 +2120,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2012,10 +2162,19 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,12 +2184,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,6 +2215,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2393,8 +2561,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="29" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
@@ -2403,37 +2571,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2441,408 +2609,408 @@
       <c r="A2" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="31">
-        <v>1</v>
-      </c>
-      <c r="E2" s="31">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31">
-        <v>1</v>
-      </c>
-      <c r="G2" s="31">
-        <v>1</v>
-      </c>
-      <c r="H2" s="31">
-        <v>1</v>
-      </c>
-      <c r="I2" s="31">
-        <v>1</v>
-      </c>
-      <c r="J2" s="31">
-        <v>1</v>
-      </c>
-      <c r="K2" s="31" t="s">
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1</v>
+      </c>
+      <c r="G2" s="30">
+        <v>1</v>
+      </c>
+      <c r="H2" s="30">
+        <v>1</v>
+      </c>
+      <c r="I2" s="30">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30">
+        <v>1</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="31">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="31">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31">
-        <v>1</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <v>1</v>
-      </c>
-      <c r="J4" s="31">
-        <v>1</v>
-      </c>
-      <c r="K4" s="31">
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="I4" s="30">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
-      <c r="B5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31">
-        <v>1</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31">
-        <v>1</v>
-      </c>
-      <c r="J6" s="31">
-        <v>1</v>
-      </c>
-      <c r="K6" s="31">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+      <c r="J6" s="30">
+        <v>1</v>
+      </c>
+      <c r="K6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="31">
-        <v>1</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1</v>
-      </c>
-      <c r="H7" s="31">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31">
-        <v>1</v>
-      </c>
-      <c r="J7" s="31">
-        <v>1</v>
-      </c>
-      <c r="K7" s="31">
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1</v>
+      </c>
+      <c r="K7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31">
-        <v>1</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31">
-        <v>1</v>
-      </c>
-      <c r="J8" s="31">
-        <v>1</v>
-      </c>
-      <c r="K8" s="31">
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1</v>
+      </c>
+      <c r="K8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31">
-        <v>1</v>
-      </c>
-      <c r="I9" s="31">
-        <v>1</v>
-      </c>
-      <c r="J9" s="31">
-        <v>1</v>
-      </c>
-      <c r="K9" s="31">
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1</v>
+      </c>
+      <c r="K9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="30">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F14" s="31">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31">
-        <v>1</v>
-      </c>
-      <c r="I14" s="31">
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30">
+        <v>1</v>
+      </c>
+      <c r="I14" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F15" s="31">
-        <v>1</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31">
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F17" s="31">
-        <v>1</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31">
-        <v>1</v>
-      </c>
-      <c r="K17" s="31" t="s">
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30">
+        <v>1</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30">
+        <v>1</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F18" s="31">
-        <v>1</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31">
-        <v>1</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31">
+      <c r="F18" s="30">
+        <v>1</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30">
+        <v>1</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="31">
-        <v>1</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31">
-        <v>1</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31">
-        <v>1</v>
-      </c>
-      <c r="K19" s="31" t="s">
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30">
+        <v>1</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F20" t="s">
@@ -2850,10 +3018,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F21" t="s">
@@ -2861,10 +3029,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F22" t="s">
@@ -2872,10 +3040,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F23" t="s">
@@ -2883,10 +3051,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F24" t="s">
@@ -2894,43 +3062,43 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F28" t="s">
@@ -2938,48 +3106,48 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F29" s="31">
-        <v>1</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F32" t="s">
@@ -2987,10 +3155,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>341</v>
       </c>
       <c r="F33" t="s">
@@ -2998,151 +3166,151 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="H34" s="31">
-        <v>1</v>
-      </c>
-      <c r="I34" s="31">
-        <v>1</v>
-      </c>
-      <c r="J34" s="31">
-        <v>1</v>
-      </c>
-      <c r="K34" s="31">
+      <c r="H34" s="30">
+        <v>1</v>
+      </c>
+      <c r="I34" s="30">
+        <v>1</v>
+      </c>
+      <c r="J34" s="30">
+        <v>1</v>
+      </c>
+      <c r="K34" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="29" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="29" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="J42" s="29" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3161,18 +3329,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="13" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="8.88671875" style="50"/>
+    <col min="9" max="9" width="8.88671875" style="50"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" customWidth="1"/>
     <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.21875" customWidth="1"/>
     <col min="20" max="20" width="21.77734375" customWidth="1"/>
   </cols>
@@ -3181,7 +3355,7 @@
       <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -3200,102 +3374,102 @@
       <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="38"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="J2" s="40"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="34" t="s">
+      <c r="N2" s="38"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="34" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="35"/>
+      <c r="T2" s="37"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>167</v>
       </c>
       <c r="U3" s="13"/>
@@ -3303,7 +3477,7 @@
       <c r="W3" s="13"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -3325,18 +3499,18 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="M4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="13" t="s">
         <v>199</v>
       </c>
@@ -3348,7 +3522,7 @@
       <c r="W4" s="13"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -3370,18 +3544,18 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="M5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
       <c r="S5" s="13" t="s">
         <v>199</v>
       </c>
@@ -3393,7 +3567,7 @@
       <c r="W5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -3415,18 +3589,18 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="M6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="13" t="s">
         <v>199</v>
       </c>
@@ -3438,7 +3612,7 @@
       <c r="W6" s="13"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -3460,18 +3634,18 @@
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="M7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="13" t="s">
         <v>199</v>
       </c>
@@ -3483,7 +3657,7 @@
       <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -3503,18 +3677,18 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="M8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="13" t="s">
         <v>199</v>
       </c>
@@ -3526,7 +3700,7 @@
       <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -3552,11 +3726,11 @@
       <c r="L9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
+      <c r="M9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26" t="s">
         <v>145</v>
       </c>
       <c r="P9" s="13" t="s">
@@ -3575,7 +3749,7 @@
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3601,11 +3775,11 @@
       <c r="L10" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
+      <c r="M10" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26" t="s">
         <v>145</v>
       </c>
       <c r="P10" s="13" t="s">
@@ -3624,7 +3798,7 @@
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -3675,7 +3849,7 @@
       <c r="W11" s="13"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -3724,7 +3898,7 @@
       <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -3773,7 +3947,7 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -3822,7 +3996,7 @@
       <c r="W14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -3846,11 +4020,11 @@
       <c r="L15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27" t="s">
+      <c r="M15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26" t="s">
         <v>145</v>
       </c>
       <c r="P15" s="13" t="s">
@@ -3869,7 +4043,7 @@
       <c r="W15" s="13"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -3916,7 +4090,7 @@
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -3967,7 +4141,7 @@
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -4016,7 +4190,7 @@
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -4040,11 +4214,11 @@
       <c r="L19" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="M19" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
+      <c r="M19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26" t="s">
         <v>145</v>
       </c>
       <c r="P19" s="13" t="s">
@@ -4063,7 +4237,7 @@
       <c r="W19" s="13"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -4096,11 +4270,11 @@
       <c r="O20" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
+      <c r="P20" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -4108,7 +4282,7 @@
       <c r="W20" s="13"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -4141,11 +4315,11 @@
       <c r="O21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P21" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="P21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -4153,7 +4327,7 @@
       <c r="W21" s="13"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -4186,11 +4360,11 @@
       <c r="O22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
+      <c r="P22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -4198,7 +4372,7 @@
       <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -4233,11 +4407,11 @@
       <c r="O23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="P23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -4245,7 +4419,7 @@
       <c r="W23" s="13"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -4280,11 +4454,11 @@
       <c r="O24" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
+      <c r="P24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -4292,7 +4466,7 @@
       <c r="W24" s="13"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -4316,11 +4490,11 @@
       <c r="L25" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="M25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27" t="s">
+      <c r="M25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="P25" s="13" t="s">
@@ -4339,7 +4513,7 @@
       <c r="W25" s="13"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -4365,18 +4539,18 @@
       <c r="L26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
+      <c r="M26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="53"/>
       <c r="S26" s="13" t="s">
         <v>295</v>
       </c>
@@ -4386,7 +4560,7 @@
       <c r="W26" s="13"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -4410,11 +4584,11 @@
       <c r="L27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26" t="s">
+      <c r="M27" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -4435,7 +4609,7 @@
       <c r="W27" s="13"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -4461,11 +4635,11 @@
       <c r="L28" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26" t="s">
+      <c r="M28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -4484,7 +4658,7 @@
       <c r="W28" s="13"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -4510,11 +4684,11 @@
       <c r="L29" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M29" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26" t="s">
+      <c r="M29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P29" s="13" t="s">
@@ -4533,7 +4707,7 @@
       <c r="W29" s="13"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -4561,11 +4735,11 @@
       <c r="L30" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26" t="s">
+      <c r="M30" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P30" s="13" t="s">
@@ -4586,7 +4760,7 @@
       <c r="W30" s="13"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -4614,18 +4788,18 @@
       <c r="L31" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
       <c r="S31" s="13" t="s">
         <v>296</v>
       </c>
@@ -4635,7 +4809,7 @@
       <c r="W31" s="13"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -4663,11 +4837,11 @@
       <c r="L32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26" t="s">
+      <c r="M32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P32" s="13" t="s">
@@ -4686,7 +4860,7 @@
       <c r="W32" s="13"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -4714,11 +4888,11 @@
       <c r="L33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26" t="s">
+      <c r="M33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P33" s="13" t="s">
@@ -4737,7 +4911,7 @@
       <c r="W33" s="13"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -4763,11 +4937,11 @@
       <c r="L34" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="M34" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26" t="s">
+      <c r="M34" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P34" s="13" t="s">
@@ -4786,7 +4960,7 @@
       <c r="W34" s="13"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -4812,11 +4986,11 @@
       <c r="L35" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="M35" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26" t="s">
+      <c r="M35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P35" s="13" t="s">
@@ -4835,7 +5009,7 @@
       <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -4863,11 +5037,11 @@
       <c r="L36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26" t="s">
+      <c r="M36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P36" s="13" t="s">
@@ -4883,7 +5057,7 @@
       <c r="T36" s="13"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -4911,11 +5085,11 @@
       <c r="L37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26" t="s">
+      <c r="M37" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P37" s="13" t="s">
@@ -4931,7 +5105,7 @@
       <c r="T37" s="13"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -4957,11 +5131,11 @@
       <c r="L38" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="M38" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26" t="s">
+      <c r="M38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P38" s="13" t="s">
@@ -4977,7 +5151,7 @@
       <c r="T38" s="13"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -5001,11 +5175,11 @@
       <c r="L39" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="M39" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26" t="s">
+      <c r="M39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P39" s="13" t="s">
@@ -5021,7 +5195,7 @@
       <c r="T39" s="13"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -5045,11 +5219,11 @@
       <c r="L40" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="M40" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26" t="s">
+      <c r="M40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P40" s="13" t="s">
@@ -5065,7 +5239,7 @@
       <c r="T40" s="13"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -5091,11 +5265,11 @@
       <c r="L41" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="M41" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26" t="s">
+      <c r="M41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P41" s="13" t="s">
@@ -5111,7 +5285,7 @@
       <c r="T41" s="13"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -5139,11 +5313,11 @@
       <c r="L42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26" t="s">
+      <c r="M42" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P42" s="13" t="s">
@@ -5159,7 +5333,7 @@
       <c r="T42" s="13"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -5187,11 +5361,11 @@
       <c r="L43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26" t="s">
+      <c r="M43" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P43" s="13" t="s">
@@ -5207,7 +5381,7 @@
       <c r="T43" s="13"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -5235,11 +5409,11 @@
       <c r="L44" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26" t="s">
+      <c r="M44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P44" s="13" t="s">
@@ -5255,7 +5429,7 @@
       <c r="T44" s="13"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -5283,11 +5457,11 @@
       <c r="L45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M45" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26" t="s">
+      <c r="M45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P45" s="13" t="s">
@@ -5303,7 +5477,7 @@
       <c r="T45" s="13"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -5329,11 +5503,11 @@
       <c r="L46" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="M46" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26" t="s">
+      <c r="M46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P46" s="13" t="s">
@@ -5349,7 +5523,7 @@
       <c r="T46" s="13"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -5375,11 +5549,11 @@
       <c r="L47" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="M47" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26" t="s">
+      <c r="M47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25" t="s">
         <v>145</v>
       </c>
       <c r="P47" s="13" t="s">
@@ -5395,7 +5569,7 @@
       <c r="T47" s="13"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="16"/>
@@ -5419,7 +5593,7 @@
       <c r="T48" s="13"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="16"/>
@@ -5443,7 +5617,7 @@
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="16"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -5470,21 +5644,43 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>374</v>
+      </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="13" t="s">
+        <v>375</v>
+      </c>
       <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
+      <c r="K51" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
     </row>
@@ -5494,21 +5690,43 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>380</v>
+      </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
     </row>
@@ -5516,94 +5734,445 @@
       <c r="A53" t="s">
         <v>48</v>
       </c>
+      <c r="D53" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I53" s="50">
+        <v>100010</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L53" t="s">
+        <v>382</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>357</v>
       </c>
+      <c r="D54" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="R54" s="49" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>358</v>
       </c>
+      <c r="D55" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J55" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L55" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="R55" s="49" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>359</v>
       </c>
+      <c r="D56" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L56" t="s">
+        <v>386</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q56" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="R56" s="49" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>40</v>
+      <c r="D57" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="J57" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L57" t="s">
+        <v>387</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q57" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="R57" s="49" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>361</v>
       </c>
+      <c r="D59" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>362</v>
       </c>
+      <c r="D60" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J60" t="s">
+        <v>398</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="R60" s="50">
+        <v>31</v>
+      </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>363</v>
       </c>
+      <c r="D61" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J61" t="s">
+        <v>400</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="R61" s="50">
+        <v>31</v>
+      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>364</v>
       </c>
+      <c r="D62" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="R62" s="50" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>365</v>
       </c>
+      <c r="D63" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I63" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="R63" s="50" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D64" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I64" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>376</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R64" s="50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D65" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="I65" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>376</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R65" s="50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>369</v>
       </c>
     </row>
+    <row r="1048576" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K1048576" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -5611,11 +6180,6 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5641,7 +6205,7 @@
       <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -5660,87 +6224,87 @@
       <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="35"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37"/>
       <c r="AC1" s="14"/>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="28" t="s">
         <v>297</v>
       </c>
       <c r="AE1" t="s">
         <v>298</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="25" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="38"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="J2" s="40"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="34" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="34" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="25"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
@@ -5749,69 +6313,69 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="19" t="s">
         <v>149</v>
       </c>
       <c r="AC3" s="13"/>
@@ -5821,7 +6385,7 @@
       <c r="AG3" s="13"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -5864,18 +6428,18 @@
       <c r="S4" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="T4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="T4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
       <c r="Z4" t="s">
         <v>290</v>
       </c>
@@ -5894,7 +6458,7 @@
       <c r="AG4" s="13"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -5931,18 +6495,18 @@
       <c r="S5" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="T5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
+      <c r="T5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" t="s">
         <v>290</v>
       </c>
@@ -5959,7 +6523,7 @@
       <c r="AG5" s="13"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5996,18 +6560,18 @@
       <c r="S6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
+      <c r="T6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
       <c r="Z6" t="s">
         <v>290</v>
       </c>
@@ -6024,7 +6588,7 @@
       <c r="AG6" s="13"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -6061,18 +6625,18 @@
       <c r="S7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
+      <c r="T7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" t="s">
         <v>290</v>
       </c>
@@ -6089,7 +6653,7 @@
       <c r="AG7" s="13"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -6124,18 +6688,18 @@
       <c r="S8" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="T8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
+      <c r="T8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
       <c r="Z8" t="s">
         <v>290</v>
       </c>
@@ -6152,7 +6716,7 @@
       <c r="AG8" s="13"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -6185,11 +6749,11 @@
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27" t="s">
+      <c r="T9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W9" s="13" t="s">
@@ -6201,9 +6765,9 @@
       <c r="Y9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="13" t="s">
         <v>293</v>
       </c>
@@ -6213,7 +6777,7 @@
       <c r="AG9" s="13"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -6246,11 +6810,11 @@
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27" t="s">
+      <c r="T10" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W10" s="13" t="s">
@@ -6262,9 +6826,9 @@
       <c r="Y10" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
@@ -6272,7 +6836,7 @@
       <c r="AG10" s="13"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -6323,9 +6887,9 @@
       <c r="Y11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
@@ -6333,7 +6897,7 @@
       <c r="AG11" s="13"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -6382,9 +6946,9 @@
       <c r="Y12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
@@ -6392,7 +6956,7 @@
       <c r="AG12" s="13"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -6441,9 +7005,9 @@
       <c r="Y13" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
@@ -6451,7 +7015,7 @@
       <c r="AG13" s="13"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -6500,9 +7064,9 @@
       <c r="Y14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
@@ -6510,7 +7074,7 @@
       <c r="AG14" s="13"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -6541,11 +7105,11 @@
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27" t="s">
+      <c r="T15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W15" s="13" t="s">
@@ -6557,9 +7121,9 @@
       <c r="Y15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
@@ -6567,7 +7131,7 @@
       <c r="AG15" s="13"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -6614,9 +7178,9 @@
       <c r="Y16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
@@ -6624,7 +7188,7 @@
       <c r="AG16" s="13"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -6675,9 +7239,9 @@
       <c r="Y17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
       <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
@@ -6685,7 +7249,7 @@
       <c r="AG17" s="13"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -6734,9 +7298,9 @@
       <c r="Y18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
@@ -6744,7 +7308,7 @@
       <c r="AG18" s="13"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -6775,11 +7339,11 @@
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27" t="s">
+      <c r="T19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W19" s="13" t="s">
@@ -6791,9 +7355,9 @@
       <c r="Y19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
@@ -6801,7 +7365,7 @@
       <c r="AG19" s="13"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -6841,14 +7405,14 @@
       <c r="V20" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W20" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
+      <c r="W20" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
@@ -6856,7 +7420,7 @@
       <c r="AG20" s="13"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -6896,14 +7460,14 @@
       <c r="V21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W21" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
+      <c r="W21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
@@ -6911,7 +7475,7 @@
       <c r="AG21" s="13"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -6951,14 +7515,14 @@
       <c r="V22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W22" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
+      <c r="W22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
@@ -6966,7 +7530,7 @@
       <c r="AG22" s="13"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -7008,14 +7572,14 @@
       <c r="V23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W23" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
+      <c r="W23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
@@ -7023,7 +7587,7 @@
       <c r="AG23" s="13"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -7065,14 +7629,14 @@
       <c r="V24" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W24" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
+      <c r="W24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
@@ -7080,7 +7644,7 @@
       <c r="AG24" s="13"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -7111,11 +7675,11 @@
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27" t="s">
+      <c r="T25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W25" s="13" t="s">
@@ -7127,9 +7691,9 @@
       <c r="Y25" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
@@ -7137,7 +7701,7 @@
       <c r="AG25" s="13"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -7172,21 +7736,21 @@
         <v>295</v>
       </c>
       <c r="S26" s="13"/>
-      <c r="T26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W26" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
+      <c r="T26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
       <c r="AC26" s="13" t="s">
         <v>294</v>
       </c>
@@ -7196,7 +7760,7 @@
       <c r="AG26" s="13"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -7229,11 +7793,11 @@
         <v>295</v>
       </c>
       <c r="S27" s="13"/>
-      <c r="T27" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26" t="s">
+      <c r="T27" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W27" s="13" t="s">
@@ -7245,9 +7809,9 @@
       <c r="Y27" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
@@ -7255,7 +7819,7 @@
       <c r="AG27" s="13"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -7288,11 +7852,11 @@
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26" t="s">
+      <c r="T28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W28" s="13" t="s">
@@ -7304,9 +7868,9 @@
       <c r="Y28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
@@ -7314,7 +7878,7 @@
       <c r="AG28" s="13"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -7347,11 +7911,11 @@
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26" t="s">
+      <c r="T29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="13" t="s">
@@ -7363,9 +7927,9 @@
       <c r="Y29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
@@ -7373,7 +7937,7 @@
       <c r="AG29" s="13"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -7410,11 +7974,11 @@
         <v>296</v>
       </c>
       <c r="S30" s="13"/>
-      <c r="T30" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26" t="s">
+      <c r="T30" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W30" s="13" t="s">
@@ -7426,9 +7990,9 @@
       <c r="Y30" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
@@ -7436,7 +8000,7 @@
       <c r="AG30" s="13"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -7473,21 +8037,21 @@
         <v>296</v>
       </c>
       <c r="S31" s="13"/>
-      <c r="T31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
+      <c r="T31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
@@ -7495,7 +8059,7 @@
       <c r="AG31" s="13"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -7530,11 +8094,11 @@
       </c>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26" t="s">
+      <c r="T32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W32" s="13" t="s">
@@ -7546,9 +8110,9 @@
       <c r="Y32" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
@@ -7556,7 +8120,7 @@
       <c r="AG32" s="13"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -7591,11 +8155,11 @@
       </c>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26" t="s">
+      <c r="T33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W33" s="13" t="s">
@@ -7607,9 +8171,9 @@
       <c r="Y33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
@@ -7617,7 +8181,7 @@
       <c r="AG33" s="13"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -7650,11 +8214,11 @@
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26" t="s">
+      <c r="T34" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W34" s="13" t="s">
@@ -7666,9 +8230,9 @@
       <c r="Y34" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
@@ -7676,7 +8240,7 @@
       <c r="AG34" s="13"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -7709,11 +8273,11 @@
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26" t="s">
+      <c r="T35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W35" s="13" t="s">
@@ -7725,9 +8289,9 @@
       <c r="Y35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
@@ -7735,7 +8299,7 @@
       <c r="AG35" s="13"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -7770,11 +8334,11 @@
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26" t="s">
+      <c r="T36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W36" s="13" t="s">
@@ -7786,9 +8350,9 @@
       <c r="Y36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
       <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
@@ -7796,7 +8360,7 @@
       <c r="AG36" s="13"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -7831,11 +8395,11 @@
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26" t="s">
+      <c r="T37" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W37" s="13" t="s">
@@ -7847,9 +8411,9 @@
       <c r="Y37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
@@ -7857,7 +8421,7 @@
       <c r="AG37" s="13"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -7890,11 +8454,11 @@
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26" t="s">
+      <c r="T38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W38" s="13" t="s">
@@ -7906,9 +8470,9 @@
       <c r="Y38" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
       <c r="AC38" s="13"/>
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
@@ -7916,7 +8480,7 @@
       <c r="AG38" s="13"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -7947,11 +8511,11 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26" t="s">
+      <c r="T39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W39" s="13" t="s">
@@ -7963,9 +8527,9 @@
       <c r="Y39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
       <c r="AC39" s="13"/>
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
@@ -7973,7 +8537,7 @@
       <c r="AG39" s="13"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -8004,11 +8568,11 @@
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26" t="s">
+      <c r="T40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W40" s="13" t="s">
@@ -8020,9 +8584,9 @@
       <c r="Y40" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
@@ -8030,7 +8594,7 @@
       <c r="AG40" s="13"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -8063,11 +8627,11 @@
       </c>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26" t="s">
+      <c r="T41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W41" s="13" t="s">
@@ -8079,9 +8643,9 @@
       <c r="Y41" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
@@ -8089,7 +8653,7 @@
       <c r="AG41" s="13"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -8124,11 +8688,11 @@
       </c>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26" t="s">
+      <c r="T42" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W42" s="13" t="s">
@@ -8140,9 +8704,9 @@
       <c r="Y42" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
@@ -8150,7 +8714,7 @@
       <c r="AG42" s="13"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -8185,11 +8749,11 @@
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26" t="s">
+      <c r="T43" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W43" s="13" t="s">
@@ -8201,9 +8765,9 @@
       <c r="Y43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
@@ -8211,7 +8775,7 @@
       <c r="AG43" s="13"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -8246,11 +8810,11 @@
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26" t="s">
+      <c r="T44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W44" s="13" t="s">
@@ -8262,9 +8826,9 @@
       <c r="Y44" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
       <c r="AC44" s="13"/>
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
@@ -8272,7 +8836,7 @@
       <c r="AG44" s="13"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -8307,11 +8871,11 @@
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26" t="s">
+      <c r="T45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W45" s="13" t="s">
@@ -8323,9 +8887,9 @@
       <c r="Y45" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
@@ -8333,7 +8897,7 @@
       <c r="AG45" s="13"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -8366,11 +8930,11 @@
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26" t="s">
+      <c r="T46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W46" s="13" t="s">
@@ -8382,9 +8946,9 @@
       <c r="Y46" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
@@ -8392,7 +8956,7 @@
       <c r="AG46" s="13"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -8425,11 +8989,11 @@
       </c>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26" t="s">
+      <c r="T47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W47" s="13" t="s">
@@ -8441,9 +9005,9 @@
       <c r="Y47" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
@@ -8451,7 +9015,7 @@
       <c r="AG47" s="13"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="16"/>
@@ -8478,9 +9042,9 @@
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
@@ -8488,7 +9052,7 @@
       <c r="AG48" s="13"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="16"/>
@@ -8515,9 +9079,9 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
       <c r="AC49" s="13"/>
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
@@ -8525,7 +9089,7 @@
       <c r="AG49" s="13"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="16"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -8725,11 +9289,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="K4:K49"/>
     <mergeCell ref="L4:L49"/>
     <mergeCell ref="M4:M49"/>
@@ -8742,6 +9301,11 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8814,7 +9378,7 @@
       <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -8833,87 +9397,87 @@
       <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="35"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="37"/>
       <c r="AC1" s="14"/>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="28" t="s">
         <v>297</v>
       </c>
       <c r="AE1" t="s">
         <v>298</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="25" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="38"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="J2" s="40"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="34" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="34" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="34" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="25"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="24"/>
       <c r="AC2" s="15"/>
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
@@ -8924,74 +9488,74 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -9027,18 +9591,18 @@
       <c r="S4" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="T4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="T4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
       <c r="Z4" t="s">
         <v>290</v>
       </c>
@@ -9053,7 +9617,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -9083,18 +9647,18 @@
       <c r="S5" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="T5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
+      <c r="T5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" t="s">
         <v>290</v>
       </c>
@@ -9106,7 +9670,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -9136,18 +9700,18 @@
       <c r="S6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
+      <c r="T6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
       <c r="Z6" t="s">
         <v>290</v>
       </c>
@@ -9159,7 +9723,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -9189,18 +9753,18 @@
       <c r="S7" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
+      <c r="T7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" t="s">
         <v>290</v>
       </c>
@@ -9212,7 +9776,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -9239,18 +9803,18 @@
       <c r="S8" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="T8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
+      <c r="T8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
       <c r="Z8" t="s">
         <v>290</v>
       </c>
@@ -9262,7 +9826,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -9286,11 +9850,11 @@
       <c r="Q9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T9" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27" t="s">
+      <c r="T9" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W9" s="13" t="s">
@@ -9302,15 +9866,15 @@
       <c r="Y9" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="13" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -9334,11 +9898,11 @@
       <c r="Q10" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27" t="s">
+      <c r="T10" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W10" s="13" t="s">
@@ -9350,12 +9914,12 @@
       <c r="Y10" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -9397,12 +9961,12 @@
       <c r="Y11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -9441,12 +10005,12 @@
       <c r="Y12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -9485,12 +10049,12 @@
       <c r="Y13" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -9529,12 +10093,12 @@
       <c r="Y14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
     </row>
     <row r="15" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -9555,11 +10119,11 @@
       <c r="Q15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27" t="s">
+      <c r="T15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W15" s="13" t="s">
@@ -9571,12 +10135,12 @@
       <c r="Y15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -9612,12 +10176,12 @@
       <c r="Y16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -9659,12 +10223,12 @@
       <c r="Y17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -9703,12 +10267,12 @@
       <c r="Y18" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -9729,11 +10293,11 @@
       <c r="Q19" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="T19" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27" t="s">
+      <c r="T19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W19" s="13" t="s">
@@ -9745,12 +10309,12 @@
       <c r="Y19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -9780,17 +10344,17 @@
       <c r="V20" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W20" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
+      <c r="W20" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -9820,17 +10384,17 @@
       <c r="V21" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W21" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
+      <c r="W21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -9860,17 +10424,17 @@
       <c r="V22" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W22" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
+      <c r="W22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -9903,17 +10467,17 @@
       <c r="V23" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W23" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
+      <c r="W23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -9946,17 +10510,17 @@
       <c r="V24" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="W24" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
+      <c r="W24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -9977,11 +10541,11 @@
       <c r="Q25" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="T25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27" t="s">
+      <c r="T25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="W25" s="13" t="s">
@@ -9993,12 +10557,12 @@
       <c r="Y25" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -10025,27 +10589,27 @@
       <c r="R26" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="T26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W26" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
+      <c r="T26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
       <c r="AC26" s="13" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -10069,11 +10633,11 @@
       <c r="R27" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="T27" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26" t="s">
+      <c r="T27" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W27" s="13" t="s">
@@ -10085,12 +10649,12 @@
       <c r="Y27" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -10114,11 +10678,11 @@
       <c r="Q28" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T28" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26" t="s">
+      <c r="T28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W28" s="13" t="s">
@@ -10130,12 +10694,12 @@
       <c r="Y28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -10159,11 +10723,11 @@
       <c r="Q29" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="T29" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26" t="s">
+      <c r="T29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W29" s="13" t="s">
@@ -10175,12 +10739,12 @@
       <c r="Y29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -10210,11 +10774,11 @@
       <c r="R30" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="T30" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26" t="s">
+      <c r="T30" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W30" s="13" t="s">
@@ -10226,12 +10790,12 @@
       <c r="Y30" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -10261,24 +10825,24 @@
       <c r="R31" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="T31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="W31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
+      <c r="T31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -10305,11 +10869,11 @@
       <c r="Q32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26" t="s">
+      <c r="T32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W32" s="13" t="s">
@@ -10321,12 +10885,12 @@
       <c r="Y32" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -10353,11 +10917,11 @@
       <c r="Q33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T33" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26" t="s">
+      <c r="T33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W33" s="13" t="s">
@@ -10369,12 +10933,12 @@
       <c r="Y33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -10398,11 +10962,11 @@
       <c r="Q34" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="T34" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26" t="s">
+      <c r="T34" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W34" s="13" t="s">
@@ -10414,12 +10978,12 @@
       <c r="Y34" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -10443,11 +11007,11 @@
       <c r="Q35" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="T35" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26" t="s">
+      <c r="T35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W35" s="13" t="s">
@@ -10459,12 +11023,12 @@
       <c r="Y35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -10491,11 +11055,11 @@
       <c r="Q36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26" t="s">
+      <c r="T36" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W36" s="13" t="s">
@@ -10507,12 +11071,12 @@
       <c r="Y36" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -10539,11 +11103,11 @@
       <c r="Q37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26" t="s">
+      <c r="T37" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W37" s="13" t="s">
@@ -10555,12 +11119,12 @@
       <c r="Y37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -10584,11 +11148,11 @@
       <c r="Q38" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="T38" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26" t="s">
+      <c r="T38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W38" s="13" t="s">
@@ -10600,12 +11164,12 @@
       <c r="Y38" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -10626,11 +11190,11 @@
       <c r="Q39" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="T39" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26" t="s">
+      <c r="T39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W39" s="13" t="s">
@@ -10642,12 +11206,12 @@
       <c r="Y39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -10668,11 +11232,11 @@
       <c r="Q40" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="T40" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26" t="s">
+      <c r="T40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W40" s="13" t="s">
@@ -10684,12 +11248,12 @@
       <c r="Y40" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -10713,11 +11277,11 @@
       <c r="Q41" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="T41" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26" t="s">
+      <c r="T41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W41" s="13" t="s">
@@ -10729,12 +11293,12 @@
       <c r="Y41" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -10761,11 +11325,11 @@
       <c r="Q42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T42" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26" t="s">
+      <c r="T42" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W42" s="13" t="s">
@@ -10777,12 +11341,12 @@
       <c r="Y42" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -10809,11 +11373,11 @@
       <c r="Q43" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T43" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26" t="s">
+      <c r="T43" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W43" s="13" t="s">
@@ -10825,12 +11389,12 @@
       <c r="Y43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -10857,11 +11421,11 @@
       <c r="Q44" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T44" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26" t="s">
+      <c r="T44" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W44" s="13" t="s">
@@ -10873,12 +11437,12 @@
       <c r="Y44" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -10905,11 +11469,11 @@
       <c r="Q45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T45" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26" t="s">
+      <c r="T45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W45" s="13" t="s">
@@ -10921,12 +11485,12 @@
       <c r="Y45" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -10950,11 +11514,11 @@
       <c r="Q46" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="T46" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26" t="s">
+      <c r="T46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W46" s="13" t="s">
@@ -10966,12 +11530,12 @@
       <c r="Y46" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -10995,11 +11559,11 @@
       <c r="Q47" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="T47" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26" t="s">
+      <c r="T47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25" t="s">
         <v>145</v>
       </c>
       <c r="W47" s="13" t="s">
@@ -11011,34 +11575,34 @@
       <c r="Y47" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="43"/>
       <c r="L48" s="46"/>
       <c r="M48" s="46"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K49" s="44"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D50" s="13" t="s">
@@ -11078,6 +11642,11 @@
     <sortCondition ref="D4:D49"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="K4:K49"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="L4:L49"/>
@@ -11090,11 +11659,6 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11146,7 +11710,7 @@
       <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="33" t="s">
@@ -11165,23 +11729,23 @@
       <c r="J1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="37"/>
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
@@ -11194,46 +11758,46 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="38"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="33" t="s">
         <v>132</v>
       </c>
       <c r="J2" s="40"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="34" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="34" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34" t="s">
+      <c r="S2" s="38"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="34" t="s">
+      <c r="V2" s="38"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="35"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
@@ -11246,65 +11810,65 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="19" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -11348,7 +11912,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -11392,7 +11956,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -11436,7 +12000,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -11480,7 +12044,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -11524,7 +12088,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -11568,7 +12132,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -11612,7 +12176,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -11656,7 +12220,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -11697,7 +12261,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -11738,7 +12302,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -11782,7 +12346,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -11832,7 +12396,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -11876,7 +12440,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -11923,7 +12487,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -11967,7 +12531,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -12011,7 +12575,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -12055,7 +12619,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -12096,7 +12660,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -12137,7 +12701,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -12184,7 +12748,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -12228,12 +12792,12 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -12280,7 +12844,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -12327,12 +12891,12 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -12376,7 +12940,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -12420,7 +12984,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -12461,7 +13025,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -12499,7 +13063,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -12537,7 +13101,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -12584,7 +13148,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -12631,7 +13195,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -12675,7 +13239,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -12716,7 +13280,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -12757,7 +13321,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -12801,7 +13365,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -12848,7 +13412,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -12895,7 +13459,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -12942,7 +13506,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -12989,7 +13553,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -13033,7 +13597,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -13071,7 +13635,7 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -13112,7 +13676,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -13153,7 +13717,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -13197,7 +13761,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -13238,7 +13802,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D50" s="13" t="s">
@@ -13273,6 +13837,11 @@
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="E2:E3"/>
@@ -13282,11 +13851,6 @@
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
